--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Icam5-Itgal.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Icam5-Itgal.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.062756666666666</v>
+        <v>0.2577906666666667</v>
       </c>
       <c r="H2">
-        <v>12.18827</v>
+        <v>0.7733719999999999</v>
       </c>
       <c r="I2">
-        <v>0.6829811567947218</v>
+        <v>0.1202607703685643</v>
       </c>
       <c r="J2">
-        <v>0.6829811567947219</v>
+        <v>0.1202607703685642</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>25.15544366666667</v>
+        <v>0.04738633333333334</v>
       </c>
       <c r="N2">
-        <v>75.466331</v>
+        <v>0.142159</v>
       </c>
       <c r="O2">
-        <v>0.9701024243751556</v>
+        <v>0.05760194168856402</v>
       </c>
       <c r="P2">
-        <v>0.9701024243751556</v>
+        <v>0.05760194168856402</v>
       </c>
       <c r="Q2">
-        <v>102.2004464597078</v>
+        <v>0.01221575446088889</v>
       </c>
       <c r="R2">
-        <v>919.8040181373699</v>
+        <v>0.109941790148</v>
       </c>
       <c r="S2">
-        <v>0.6625616760091079</v>
+        <v>0.006927253882191826</v>
       </c>
       <c r="T2">
-        <v>0.662561676009108</v>
+        <v>0.006927253882191825</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.062756666666666</v>
+        <v>0.2577906666666667</v>
       </c>
       <c r="H3">
-        <v>12.18827</v>
+        <v>0.7733719999999999</v>
       </c>
       <c r="I3">
-        <v>0.6829811567947218</v>
+        <v>0.1202607703685643</v>
       </c>
       <c r="J3">
-        <v>0.6829811567947219</v>
+        <v>0.1202607703685642</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.890449</v>
       </c>
       <c r="O3">
-        <v>0.02430128951224074</v>
+        <v>0.7659981644722047</v>
       </c>
       <c r="P3">
-        <v>0.02430128951224074</v>
+        <v>0.7659981644722047</v>
       </c>
       <c r="Q3">
-        <v>2.560144759247777</v>
+        <v>0.1624467026697778</v>
       </c>
       <c r="R3">
-        <v>23.04130283323</v>
+        <v>1.462020324028</v>
       </c>
       <c r="S3">
-        <v>0.01659732282267362</v>
+        <v>0.09211952936033352</v>
       </c>
       <c r="T3">
-        <v>0.01659732282267363</v>
+        <v>0.0921195293603335</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>4.062756666666666</v>
+        <v>0.2577906666666667</v>
       </c>
       <c r="H4">
-        <v>12.18827</v>
+        <v>0.7733719999999999</v>
       </c>
       <c r="I4">
-        <v>0.6829811567947218</v>
+        <v>0.1202607703685643</v>
       </c>
       <c r="J4">
-        <v>0.6829811567947219</v>
+        <v>0.1202607703685642</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1451156666666666</v>
+        <v>0.1451156666666667</v>
       </c>
       <c r="N4">
-        <v>0.4353469999999999</v>
+        <v>0.435347</v>
       </c>
       <c r="O4">
-        <v>0.005596286112603656</v>
+        <v>0.1763998938392313</v>
       </c>
       <c r="P4">
-        <v>0.005596286112603657</v>
+        <v>0.1763998938392313</v>
       </c>
       <c r="Q4">
-        <v>0.5895696421877776</v>
+        <v>0.03740946445377778</v>
       </c>
       <c r="R4">
-        <v>5.306126779689999</v>
+        <v>0.336685180084</v>
       </c>
       <c r="S4">
-        <v>0.003822157962940282</v>
+        <v>0.02121398712603891</v>
       </c>
       <c r="T4">
-        <v>0.003822157962940283</v>
+        <v>0.02121398712603891</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>5.65742</v>
       </c>
       <c r="I5">
-        <v>0.3170188432052782</v>
+        <v>0.8797392296314358</v>
       </c>
       <c r="J5">
-        <v>0.3170188432052782</v>
+        <v>0.8797392296314357</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>25.15544366666667</v>
+        <v>0.04738633333333334</v>
       </c>
       <c r="N5">
-        <v>75.466331</v>
+        <v>0.142159</v>
       </c>
       <c r="O5">
-        <v>0.9701024243751556</v>
+        <v>0.05760194168856402</v>
       </c>
       <c r="P5">
-        <v>0.9701024243751556</v>
+        <v>0.05760194168856402</v>
       </c>
       <c r="Q5">
-        <v>47.43830336955778</v>
+        <v>0.08936146330888889</v>
       </c>
       <c r="R5">
-        <v>426.94473032602</v>
+        <v>0.8042531697800001</v>
       </c>
       <c r="S5">
-        <v>0.3075407483660477</v>
+        <v>0.0506746878063722</v>
       </c>
       <c r="T5">
-        <v>0.3075407483660477</v>
+        <v>0.05067468780637219</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>5.65742</v>
       </c>
       <c r="I6">
-        <v>0.3170188432052782</v>
+        <v>0.8797392296314358</v>
       </c>
       <c r="J6">
-        <v>0.3170188432052782</v>
+        <v>0.8797392296314357</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>1.890449</v>
       </c>
       <c r="O6">
-        <v>0.02430128951224074</v>
+        <v>0.7659981644722047</v>
       </c>
       <c r="P6">
-        <v>0.02430128951224074</v>
+        <v>0.7659981644722047</v>
       </c>
       <c r="Q6">
         <v>1.188340442397778</v>
@@ -818,10 +818,10 @@
         <v>10.69506398158</v>
       </c>
       <c r="S6">
-        <v>0.007703966689567119</v>
+        <v>0.6738786351118712</v>
       </c>
       <c r="T6">
-        <v>0.007703966689567119</v>
+        <v>0.6738786351118712</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>5.65742</v>
       </c>
       <c r="I7">
-        <v>0.3170188432052782</v>
+        <v>0.8797392296314358</v>
       </c>
       <c r="J7">
-        <v>0.3170188432052782</v>
+        <v>0.8797392296314357</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1451156666666666</v>
+        <v>0.1451156666666667</v>
       </c>
       <c r="N7">
-        <v>0.4353469999999999</v>
+        <v>0.435347</v>
       </c>
       <c r="O7">
-        <v>0.005596286112603656</v>
+        <v>0.1763998938392313</v>
       </c>
       <c r="P7">
-        <v>0.005596286112603657</v>
+        <v>0.1763998938392313</v>
       </c>
       <c r="Q7">
-        <v>0.2736600916377777</v>
+        <v>0.2736600916377778</v>
       </c>
       <c r="R7">
         <v>2.46294082474</v>
       </c>
       <c r="S7">
-        <v>0.001774128149663374</v>
+        <v>0.1551859067131924</v>
       </c>
       <c r="T7">
-        <v>0.001774128149663375</v>
+        <v>0.1551859067131924</v>
       </c>
     </row>
   </sheetData>
